--- a/resources/GINF2/Notes.xlsx
+++ b/resources/GINF2/Notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GINF2_2021_2022\XML\Projet_Gestion_Scolarite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GINF2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6917D6CB-FB63-464E-A0C9-5B90103FE74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0152FA36-E2CF-4A41-BD4E-047003255316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{203F551E-58BE-4A2E-BFDB-4C870897D58E}"/>
   </bookViews>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DDC0FA-A10B-4957-A792-2F7FC086EBD0}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,11 +517,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>19000031</v>
+        <v>18000031</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>19000032</v>
+        <v>18000031</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>19000033</v>
+        <v>18000031</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>19000034</v>
+        <v>18000031</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>19000035</v>
+        <v>18000031</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>19000036</v>
+        <v>18000031</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>19000037</v>
+        <v>18000031</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>19000038</v>
+        <v>18000031</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>19000039</v>
+        <v>18000031</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>19000040</v>
+        <v>18000031</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>

--- a/resources/GINF2/Notes.xlsx
+++ b/resources/GINF2/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GINF2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0152FA36-E2CF-4A41-BD4E-047003255316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3FE2F5-0B52-4941-B780-3E942D6BC16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{203F551E-58BE-4A2E-BFDB-4C870897D58E}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -565,10 +565,10 @@
         <v>18000031</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -612,10 +612,10 @@
         <v>18000031</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3">
         <v>19</v>
@@ -659,10 +659,10 @@
         <v>18000031</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -706,10 +706,10 @@
         <v>18000031</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -753,10 +753,10 @@
         <v>18000031</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
       <c r="D6">
         <v>19</v>
@@ -800,10 +800,10 @@
         <v>18000031</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -847,10 +847,10 @@
         <v>18000031</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -894,10 +894,10 @@
         <v>18000031</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -941,10 +941,10 @@
         <v>18000031</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -988,10 +988,10 @@
         <v>18000031</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
       <c r="D11">
         <v>12</v>

--- a/resources/GINF2/Notes.xlsx
+++ b/resources/GINF2/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GINF2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3FE2F5-0B52-4941-B780-3E942D6BC16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC4E8A8-E321-4CA1-A272-A459C923FDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{203F551E-58BE-4A2E-BFDB-4C870897D58E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>CNE</t>
   </si>
@@ -43,66 +43,6 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>Ginf2_FN1</t>
-  </si>
-  <si>
-    <t>Ginf2_FN2</t>
-  </si>
-  <si>
-    <t>Ginf2_FN3</t>
-  </si>
-  <si>
-    <t>Ginf2_FN4</t>
-  </si>
-  <si>
-    <t>Ginf2_FN5</t>
-  </si>
-  <si>
-    <t>Ginf2_FN6</t>
-  </si>
-  <si>
-    <t>Ginf2_FN7</t>
-  </si>
-  <si>
-    <t>Ginf2_FN8</t>
-  </si>
-  <si>
-    <t>Ginf2_FN9</t>
-  </si>
-  <si>
-    <t>Ginf2_FN10</t>
-  </si>
-  <si>
-    <t>Ginf2_LN1</t>
-  </si>
-  <si>
-    <t>Ginf2_LN2</t>
-  </si>
-  <si>
-    <t>Ginf2_LN3</t>
-  </si>
-  <si>
-    <t>Ginf2_LN4</t>
-  </si>
-  <si>
-    <t>Ginf2_LN5</t>
-  </si>
-  <si>
-    <t>Ginf2_LN6</t>
-  </si>
-  <si>
-    <t>Ginf2_LN7</t>
-  </si>
-  <si>
-    <t>Ginf2_LN8</t>
-  </si>
-  <si>
-    <t>Ginf2_LN9</t>
-  </si>
-  <si>
-    <t>Ginf2_LN10</t>
-  </si>
-  <si>
     <t>Note_GINF31</t>
   </si>
   <si>
@@ -137,6 +77,306 @@
   </si>
   <si>
     <t>Note_GINF46</t>
+  </si>
+  <si>
+    <t>Alexander Park</t>
+  </si>
+  <si>
+    <t>Neville Molina</t>
+  </si>
+  <si>
+    <t>Aristotle Ramsey</t>
+  </si>
+  <si>
+    <t>Pascale Lawson</t>
+  </si>
+  <si>
+    <t>Remedios Burt</t>
+  </si>
+  <si>
+    <t>Zia Little</t>
+  </si>
+  <si>
+    <t>Nayda Hunter</t>
+  </si>
+  <si>
+    <t>Allegra Guzman</t>
+  </si>
+  <si>
+    <t>Carter Bell</t>
+  </si>
+  <si>
+    <t>Herrod Cannon</t>
+  </si>
+  <si>
+    <t>Colin Garza</t>
+  </si>
+  <si>
+    <t>Cruz Hunter</t>
+  </si>
+  <si>
+    <t>Frances Stevenson</t>
+  </si>
+  <si>
+    <t>Reed Baker</t>
+  </si>
+  <si>
+    <t>Leilani Owen</t>
+  </si>
+  <si>
+    <t>Cleo Cameron</t>
+  </si>
+  <si>
+    <t>Buffy Frost</t>
+  </si>
+  <si>
+    <t>Yardley Wilson</t>
+  </si>
+  <si>
+    <t>Meredith York</t>
+  </si>
+  <si>
+    <t>Odette Dawson</t>
+  </si>
+  <si>
+    <t>Kamal Soto</t>
+  </si>
+  <si>
+    <t>Zia Emerson</t>
+  </si>
+  <si>
+    <t>Dennis Weber</t>
+  </si>
+  <si>
+    <t>Quail Howard</t>
+  </si>
+  <si>
+    <t>Brett Ferrell</t>
+  </si>
+  <si>
+    <t>Desiree Lynn</t>
+  </si>
+  <si>
+    <t>Malachi Gonzalez</t>
+  </si>
+  <si>
+    <t>Britanni Brown</t>
+  </si>
+  <si>
+    <t>Matthew Lucas</t>
+  </si>
+  <si>
+    <t>Oliver Montgomery</t>
+  </si>
+  <si>
+    <t>Solomon Carney</t>
+  </si>
+  <si>
+    <t>Philip Molina</t>
+  </si>
+  <si>
+    <t>Hunter Frank</t>
+  </si>
+  <si>
+    <t>Emi Sandoval</t>
+  </si>
+  <si>
+    <t>Tamekah Merrill</t>
+  </si>
+  <si>
+    <t>Destiny Lowery</t>
+  </si>
+  <si>
+    <t>Gwendolyn Irwin</t>
+  </si>
+  <si>
+    <t>Wylie Boyd</t>
+  </si>
+  <si>
+    <t>Carlos Odom</t>
+  </si>
+  <si>
+    <t>Quinlan Stewart</t>
+  </si>
+  <si>
+    <t>Stewart Burnett</t>
+  </si>
+  <si>
+    <t>Ria Osborn</t>
+  </si>
+  <si>
+    <t>Doris Hatfield</t>
+  </si>
+  <si>
+    <t>Nyssa Aguirre</t>
+  </si>
+  <si>
+    <t>Eve Lang</t>
+  </si>
+  <si>
+    <t>Desirae Cabrera</t>
+  </si>
+  <si>
+    <t>Risa Holloway</t>
+  </si>
+  <si>
+    <t>Tamekah Mccray</t>
+  </si>
+  <si>
+    <t>Venus Parks</t>
+  </si>
+  <si>
+    <t>Beau Klein</t>
+  </si>
+  <si>
+    <t>Tasha Owens</t>
+  </si>
+  <si>
+    <t>Armand Oneil</t>
+  </si>
+  <si>
+    <t>Colt Sherman</t>
+  </si>
+  <si>
+    <t>Emerson Burch</t>
+  </si>
+  <si>
+    <t>Patricia Mueller</t>
+  </si>
+  <si>
+    <t>Sandra Galloway</t>
+  </si>
+  <si>
+    <t>Kelsie Gates</t>
+  </si>
+  <si>
+    <t>Nicholas Stout</t>
+  </si>
+  <si>
+    <t>Gray Kim</t>
+  </si>
+  <si>
+    <t>Aileen Mullen</t>
+  </si>
+  <si>
+    <t>Jasper Noel</t>
+  </si>
+  <si>
+    <t>Nell Maynard</t>
+  </si>
+  <si>
+    <t>Omar Ratliff</t>
+  </si>
+  <si>
+    <t>Jason Clarke</t>
+  </si>
+  <si>
+    <t>Clementine Wood</t>
+  </si>
+  <si>
+    <t>Neil Shepherd</t>
+  </si>
+  <si>
+    <t>Jason Cherry</t>
+  </si>
+  <si>
+    <t>Conan Callahan</t>
+  </si>
+  <si>
+    <t>John Horne</t>
+  </si>
+  <si>
+    <t>Ainsley Lynch</t>
+  </si>
+  <si>
+    <t>Cedric Galloway</t>
+  </si>
+  <si>
+    <t>Erica Cobb</t>
+  </si>
+  <si>
+    <t>Maisie Mccarthy</t>
+  </si>
+  <si>
+    <t>Urielle Mcgowan</t>
+  </si>
+  <si>
+    <t>Ocean Ayers</t>
+  </si>
+  <si>
+    <t>Candace Rosales</t>
+  </si>
+  <si>
+    <t>Silas Holland</t>
+  </si>
+  <si>
+    <t>Noelle Dyer</t>
+  </si>
+  <si>
+    <t>Scarlett Williamson</t>
+  </si>
+  <si>
+    <t>Ezekiel Serrano</t>
+  </si>
+  <si>
+    <t>Yuli Floyd</t>
+  </si>
+  <si>
+    <t>Kyla Reynolds</t>
+  </si>
+  <si>
+    <t>Avye Barnett</t>
+  </si>
+  <si>
+    <t>Lani Dudley</t>
+  </si>
+  <si>
+    <t>Kareem Castro</t>
+  </si>
+  <si>
+    <t>Avram Wade</t>
+  </si>
+  <si>
+    <t>Quintessa Grimes</t>
+  </si>
+  <si>
+    <t>Leroy Bates</t>
+  </si>
+  <si>
+    <t>Pandora Franklin</t>
+  </si>
+  <si>
+    <t>Basil Mcfadden</t>
+  </si>
+  <si>
+    <t>Boris Brewer</t>
+  </si>
+  <si>
+    <t>Hiram Bridges</t>
+  </si>
+  <si>
+    <t>Cleo Carpenter</t>
+  </si>
+  <si>
+    <t>Burke Carr</t>
+  </si>
+  <si>
+    <t>Eaton Fitzgerald</t>
+  </si>
+  <si>
+    <t>Colt Gibbs</t>
+  </si>
+  <si>
+    <t>Phoebe Dean</t>
+  </si>
+  <si>
+    <t>Denton Smith</t>
+  </si>
+  <si>
+    <t>Jin Strickland</t>
+  </si>
+  <si>
+    <t>Justina Fischer</t>
   </si>
 </sst>
 </file>
@@ -502,7 +742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DDC0FA-A10B-4957-A792-2F7FC086EBD0}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -514,7 +754,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -524,84 +764,84 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>18000031</v>
+        <v>18000151</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>17</v>
+      </c>
+      <c r="M2">
+        <v>17</v>
+      </c>
+      <c r="N2">
         <v>20</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>17</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>16</v>
-      </c>
-      <c r="L2">
-        <v>18</v>
-      </c>
-      <c r="M2">
-        <v>12</v>
-      </c>
-      <c r="N2">
-        <v>10</v>
       </c>
       <c r="O2">
         <v>14</v>
@@ -609,425 +849,2305 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>18000031</v>
+        <v>18000152</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K3">
         <v>15</v>
       </c>
       <c r="L3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O3">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>18000031</v>
+        <v>18000153</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O4">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>18000031</v>
+        <v>18000154</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>18</v>
-      </c>
       <c r="J5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O5">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>18000031</v>
+        <v>18000155</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
       <c r="G6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>11</v>
       </c>
       <c r="I6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>18000031</v>
+        <v>18000156</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>18</v>
+      </c>
+      <c r="K7">
         <v>19</v>
       </c>
-      <c r="E7">
+      <c r="L7">
         <v>7</v>
       </c>
-      <c r="F7">
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
         <v>20</v>
       </c>
-      <c r="G7">
-        <v>14</v>
-      </c>
-      <c r="H7">
-        <v>19</v>
-      </c>
-      <c r="I7">
-        <v>15</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>11</v>
-      </c>
-      <c r="L7">
-        <v>17</v>
-      </c>
-      <c r="M7">
-        <v>18</v>
-      </c>
-      <c r="N7">
-        <v>15</v>
-      </c>
       <c r="O7">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>18000031</v>
+        <v>18000157</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>14</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>16</v>
-      </c>
-      <c r="I8">
-        <v>18</v>
-      </c>
-      <c r="J8">
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <v>12</v>
-      </c>
-      <c r="L8">
-        <v>20</v>
-      </c>
       <c r="M8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O8">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>18000031</v>
+        <v>18000158</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
       <c r="E9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O9">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>18000031</v>
+        <v>18000159</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J10">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O10">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>18000031</v>
+        <v>18000160</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K11">
         <v>13</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M11">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>18000161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>19</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>18000162</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>18000163</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <v>18</v>
+      </c>
+      <c r="M14">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>18000164</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <v>16</v>
+      </c>
+      <c r="O15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>18000165</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>15</v>
+      </c>
+      <c r="O16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>18000166</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>18</v>
+      </c>
+      <c r="N17">
+        <v>17</v>
+      </c>
+      <c r="O17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>18000167</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>9</v>
+      </c>
+      <c r="N18">
+        <v>8</v>
+      </c>
+      <c r="O18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18000168</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <v>9</v>
+      </c>
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18000169</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>12</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>12</v>
+      </c>
+      <c r="M20">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <v>9</v>
+      </c>
+      <c r="O20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>18000170</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>13</v>
+      </c>
+      <c r="J21">
+        <v>14</v>
+      </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>13</v>
+      </c>
+      <c r="M21">
+        <v>15</v>
+      </c>
+      <c r="N21">
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>18000171</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>19</v>
+      </c>
+      <c r="K22">
+        <v>15</v>
+      </c>
+      <c r="L22">
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <v>13</v>
+      </c>
+      <c r="N22">
         <v>20</v>
       </c>
-      <c r="N11">
-        <v>11</v>
-      </c>
-      <c r="O11">
-        <v>18</v>
+      <c r="O22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>18000172</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <v>13</v>
+      </c>
+      <c r="J23">
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <v>11</v>
+      </c>
+      <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="N23">
+        <v>13</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>18000173</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>17</v>
+      </c>
+      <c r="H24">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>18000174</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>14</v>
+      </c>
+      <c r="K25">
+        <v>12</v>
+      </c>
+      <c r="L25">
+        <v>14</v>
+      </c>
+      <c r="M25">
+        <v>13</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>18000175</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>11</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>18</v>
+      </c>
+      <c r="L26">
+        <v>13</v>
+      </c>
+      <c r="M26">
+        <v>13</v>
+      </c>
+      <c r="N26">
+        <v>9</v>
+      </c>
+      <c r="O26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>18000176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>17</v>
+      </c>
+      <c r="H27">
+        <v>17</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>19</v>
+      </c>
+      <c r="L27">
+        <v>16</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27">
+        <v>17</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>18000177</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>17</v>
+      </c>
+      <c r="H28">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>13</v>
+      </c>
+      <c r="K28">
+        <v>13</v>
+      </c>
+      <c r="L28">
+        <v>12</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>18000178</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>17</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>15</v>
+      </c>
+      <c r="M29">
+        <v>16</v>
+      </c>
+      <c r="N29">
+        <v>15</v>
+      </c>
+      <c r="O29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>18000179</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <v>9</v>
+      </c>
+      <c r="M30">
+        <v>12</v>
+      </c>
+      <c r="N30">
+        <v>11</v>
+      </c>
+      <c r="O30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>18000180</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>14</v>
+      </c>
+      <c r="I31">
+        <v>12</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>18</v>
+      </c>
+      <c r="L31">
+        <v>9</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>16</v>
+      </c>
+      <c r="O31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>18000181</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>11</v>
+      </c>
+      <c r="J32">
+        <v>16</v>
+      </c>
+      <c r="K32">
+        <v>11</v>
+      </c>
+      <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <v>16</v>
+      </c>
+      <c r="N32">
+        <v>17</v>
+      </c>
+      <c r="O32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>18000182</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>15</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>11</v>
+      </c>
+      <c r="M33">
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <v>14</v>
+      </c>
+      <c r="O33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>18000183</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>12</v>
+      </c>
+      <c r="I34">
+        <v>14</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+      <c r="K34">
+        <v>14</v>
+      </c>
+      <c r="L34">
+        <v>17</v>
+      </c>
+      <c r="M34">
+        <v>13</v>
+      </c>
+      <c r="N34">
+        <v>11</v>
+      </c>
+      <c r="O34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>18000184</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>18</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <v>14</v>
+      </c>
+      <c r="L35">
+        <v>15</v>
+      </c>
+      <c r="M35">
+        <v>7</v>
+      </c>
+      <c r="N35">
+        <v>16</v>
+      </c>
+      <c r="O35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>18000185</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>14</v>
+      </c>
+      <c r="K36">
+        <v>15</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>17</v>
+      </c>
+      <c r="N36">
+        <v>18</v>
+      </c>
+      <c r="O36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>18000186</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>13</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>17</v>
+      </c>
+      <c r="L37">
+        <v>14</v>
+      </c>
+      <c r="M37">
+        <v>18</v>
+      </c>
+      <c r="N37">
+        <v>8</v>
+      </c>
+      <c r="O37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>18000187</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>17</v>
+      </c>
+      <c r="F38">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>16</v>
+      </c>
+      <c r="I38">
+        <v>17</v>
+      </c>
+      <c r="J38">
+        <v>12</v>
+      </c>
+      <c r="K38">
+        <v>6</v>
+      </c>
+      <c r="L38">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <v>7</v>
+      </c>
+      <c r="N38">
+        <v>10</v>
+      </c>
+      <c r="O38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>18000188</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>14</v>
+      </c>
+      <c r="H39">
+        <v>16</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>15</v>
+      </c>
+      <c r="K39">
+        <v>15</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39">
+        <v>6</v>
+      </c>
+      <c r="N39">
+        <v>17</v>
+      </c>
+      <c r="O39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>18000189</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>11</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>13</v>
+      </c>
+      <c r="L40">
+        <v>12</v>
+      </c>
+      <c r="M40">
+        <v>10</v>
+      </c>
+      <c r="N40">
+        <v>16</v>
+      </c>
+      <c r="O40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>18000190</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>11</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>11</v>
+      </c>
+      <c r="L41">
+        <v>11</v>
+      </c>
+      <c r="M41">
+        <v>6</v>
+      </c>
+      <c r="N41">
+        <v>18</v>
+      </c>
+      <c r="O41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>18000191</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>13</v>
+      </c>
+      <c r="I42">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>8</v>
+      </c>
+      <c r="L42">
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <v>11</v>
+      </c>
+      <c r="N42">
+        <v>9</v>
+      </c>
+      <c r="O42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>18000192</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="I43">
+        <v>11</v>
+      </c>
+      <c r="J43">
+        <v>12</v>
+      </c>
+      <c r="K43">
+        <v>12</v>
+      </c>
+      <c r="L43">
+        <v>8</v>
+      </c>
+      <c r="M43">
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <v>19</v>
+      </c>
+      <c r="O43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>18000193</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>17</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>16</v>
+      </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
+      <c r="I44">
+        <v>8</v>
+      </c>
+      <c r="J44">
+        <v>8</v>
+      </c>
+      <c r="K44">
+        <v>10</v>
+      </c>
+      <c r="L44">
+        <v>11</v>
+      </c>
+      <c r="M44">
+        <v>10</v>
+      </c>
+      <c r="N44">
+        <v>18</v>
+      </c>
+      <c r="O44">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>18000194</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>13</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>9</v>
+      </c>
+      <c r="I45">
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <v>12</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>11</v>
+      </c>
+      <c r="N45">
+        <v>16</v>
+      </c>
+      <c r="O45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>18000195</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>9</v>
+      </c>
+      <c r="I46">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>12</v>
+      </c>
+      <c r="L46">
+        <v>17</v>
+      </c>
+      <c r="M46">
+        <v>16</v>
+      </c>
+      <c r="N46">
+        <v>18</v>
+      </c>
+      <c r="O46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>18000196</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
+      </c>
+      <c r="F47">
+        <v>14</v>
+      </c>
+      <c r="G47">
+        <v>18</v>
+      </c>
+      <c r="H47">
+        <v>18</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+      <c r="K47">
+        <v>13</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>9</v>
+      </c>
+      <c r="N47">
+        <v>13</v>
+      </c>
+      <c r="O47">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>18000197</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>13</v>
+      </c>
+      <c r="H48">
+        <v>11</v>
+      </c>
+      <c r="I48">
+        <v>11</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+      <c r="K48">
+        <v>20</v>
+      </c>
+      <c r="L48">
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <v>8</v>
+      </c>
+      <c r="N48">
+        <v>20</v>
+      </c>
+      <c r="O48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>18000198</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49">
+        <v>19</v>
+      </c>
+      <c r="E49">
+        <v>17</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49">
+        <v>18</v>
+      </c>
+      <c r="H49">
+        <v>11</v>
+      </c>
+      <c r="I49">
+        <v>18</v>
+      </c>
+      <c r="J49">
+        <v>7</v>
+      </c>
+      <c r="K49">
+        <v>9</v>
+      </c>
+      <c r="L49">
+        <v>16</v>
+      </c>
+      <c r="M49">
+        <v>7</v>
+      </c>
+      <c r="N49">
+        <v>15</v>
+      </c>
+      <c r="O49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>18000199</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>12</v>
+      </c>
+      <c r="I50">
+        <v>15</v>
+      </c>
+      <c r="J50">
+        <v>14</v>
+      </c>
+      <c r="K50">
+        <v>10</v>
+      </c>
+      <c r="L50">
+        <v>13</v>
+      </c>
+      <c r="M50">
+        <v>18</v>
+      </c>
+      <c r="N50">
+        <v>18</v>
+      </c>
+      <c r="O50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>18000200</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
+      </c>
+      <c r="E51">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>16</v>
+      </c>
+      <c r="K51">
+        <v>14</v>
+      </c>
+      <c r="L51">
+        <v>13</v>
+      </c>
+      <c r="M51">
+        <v>17</v>
+      </c>
+      <c r="N51">
+        <v>11</v>
+      </c>
+      <c r="O51">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/resources/GINF2/Notes.xlsx
+++ b/resources/GINF2/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GINF2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC4E8A8-E321-4CA1-A272-A459C923FDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E84B56-62E8-4826-8243-E15E94CAFFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{203F551E-58BE-4A2E-BFDB-4C870897D58E}"/>
   </bookViews>
@@ -79,18 +79,6 @@
     <t>Note_GINF46</t>
   </si>
   <si>
-    <t>Alexander Park</t>
-  </si>
-  <si>
-    <t>Neville Molina</t>
-  </si>
-  <si>
-    <t>Aristotle Ramsey</t>
-  </si>
-  <si>
-    <t>Pascale Lawson</t>
-  </si>
-  <si>
     <t>Remedios Burt</t>
   </si>
   <si>
@@ -377,6 +365,18 @@
   </si>
   <si>
     <t>Justina Fischer</t>
+  </si>
+  <si>
+    <t>Bentarki</t>
+  </si>
+  <si>
+    <t>Nouhaila</t>
+  </si>
+  <si>
+    <t>Mairou</t>
+  </si>
+  <si>
+    <t>Haoua Amamatou Oumar</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -805,10 +805,10 @@
         <v>18000151</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -852,10 +852,10 @@
         <v>18000152</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -899,10 +899,10 @@
         <v>18000153</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -946,10 +946,10 @@
         <v>18000154</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -993,10 +993,10 @@
         <v>18000155</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>13</v>
@@ -1040,10 +1040,10 @@
         <v>18000156</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -1087,10 +1087,10 @@
         <v>18000157</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>18</v>
@@ -1134,10 +1134,10 @@
         <v>18000158</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -1181,10 +1181,10 @@
         <v>18000159</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1228,10 +1228,10 @@
         <v>18000160</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>17</v>
@@ -1275,10 +1275,10 @@
         <v>18000161</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1322,10 +1322,10 @@
         <v>18000162</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>19</v>
@@ -1369,10 +1369,10 @@
         <v>18000163</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -1416,10 +1416,10 @@
         <v>18000164</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1463,10 +1463,10 @@
         <v>18000165</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -1510,10 +1510,10 @@
         <v>18000166</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -1557,10 +1557,10 @@
         <v>18000167</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -1604,10 +1604,10 @@
         <v>18000168</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>13</v>
@@ -1651,10 +1651,10 @@
         <v>18000169</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -1698,10 +1698,10 @@
         <v>18000170</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <v>13</v>
@@ -1745,10 +1745,10 @@
         <v>18000171</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <v>12</v>
@@ -1792,10 +1792,10 @@
         <v>18000172</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>9</v>
@@ -1839,10 +1839,10 @@
         <v>18000173</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>9</v>
@@ -1886,10 +1886,10 @@
         <v>18000174</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D25">
         <v>15</v>
@@ -1933,10 +1933,10 @@
         <v>18000175</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>14</v>
@@ -1980,10 +1980,10 @@
         <v>18000176</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>15</v>
@@ -2027,10 +2027,10 @@
         <v>18000177</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -2074,10 +2074,10 @@
         <v>18000178</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -2121,10 +2121,10 @@
         <v>18000179</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D30">
         <v>7</v>
@@ -2168,10 +2168,10 @@
         <v>18000180</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D31">
         <v>17</v>
@@ -2215,10 +2215,10 @@
         <v>18000181</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>16</v>
@@ -2262,10 +2262,10 @@
         <v>18000182</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D33">
         <v>20</v>
@@ -2309,10 +2309,10 @@
         <v>18000183</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D34">
         <v>11</v>
@@ -2356,10 +2356,10 @@
         <v>18000184</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D35">
         <v>12</v>
@@ -2403,10 +2403,10 @@
         <v>18000185</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -2450,10 +2450,10 @@
         <v>18000186</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -2497,10 +2497,10 @@
         <v>18000187</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D38">
         <v>20</v>
@@ -2544,10 +2544,10 @@
         <v>18000188</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D39">
         <v>17</v>
@@ -2591,10 +2591,10 @@
         <v>18000189</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D40">
         <v>20</v>
@@ -2638,10 +2638,10 @@
         <v>18000190</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D41">
         <v>9</v>
@@ -2685,10 +2685,10 @@
         <v>18000191</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D42">
         <v>9</v>
@@ -2732,10 +2732,10 @@
         <v>18000192</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -2779,10 +2779,10 @@
         <v>18000193</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D44">
         <v>19</v>
@@ -2826,10 +2826,10 @@
         <v>18000194</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D45">
         <v>8</v>
@@ -2873,10 +2873,10 @@
         <v>18000195</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -2920,10 +2920,10 @@
         <v>18000196</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -2967,10 +2967,10 @@
         <v>18000197</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D48">
         <v>8</v>
@@ -3014,10 +3014,10 @@
         <v>18000198</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D49">
         <v>19</v>
@@ -3061,10 +3061,10 @@
         <v>18000199</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D50">
         <v>14</v>
@@ -3108,10 +3108,10 @@
         <v>18000200</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D51">
         <v>16</v>
